--- a/промежуточная таблица/матрица.xlsx
+++ b/промежуточная таблица/матрица.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\Махеев\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBE08E-61B9-43E1-A859-AA72C99595C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C1BAB1-7849-4B97-A9A9-326E11C03ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -340,6 +340,24 @@
   </si>
   <si>
     <t>кооф</t>
+  </si>
+  <si>
+    <t>старая кратность</t>
+  </si>
+  <si>
+    <t>Конфеты "Доярушка" вал 4 кг  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Сметанный с грибами" Дой-пак с дозатором 50,5% жирн. 200 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Хрен закуска "Столовый" Махеевъ с/банка ТВИСТ 190 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>E-2MC-321-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>E-1XZ-206-B19-X00-Y12</t>
   </si>
 </sst>
 </file>
@@ -375,8 +393,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -657,10 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +691,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +707,11 @@
       <c r="E1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -704,8 +727,11 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -719,10 +745,13 @@
         <v>18</v>
       </c>
       <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="H3">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -736,10 +765,13 @@
         <v>12</v>
       </c>
       <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="H4">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -753,10 +785,13 @@
         <v>18</v>
       </c>
       <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="H5">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -770,10 +805,13 @@
         <v>12</v>
       </c>
       <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="H6">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -787,10 +825,13 @@
         <v>16</v>
       </c>
       <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="H7">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -804,10 +845,13 @@
         <v>16</v>
       </c>
       <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="H8">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -821,10 +865,13 @@
         <v>16</v>
       </c>
       <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="H9">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -838,10 +885,13 @@
         <v>16</v>
       </c>
       <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="H10">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -855,10 +905,13 @@
         <v>16</v>
       </c>
       <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="H11">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -872,10 +925,13 @@
         <v>16</v>
       </c>
       <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="H12">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -891,8 +947,11 @@
       <c r="E13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -908,8 +967,11 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -923,10 +985,13 @@
         <v>20</v>
       </c>
       <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="H15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -940,10 +1005,13 @@
         <v>20</v>
       </c>
       <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="H16">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -957,10 +1025,13 @@
         <v>20</v>
       </c>
       <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -974,10 +1045,13 @@
         <v>20</v>
       </c>
       <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="H18">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -991,10 +1065,13 @@
         <v>20</v>
       </c>
       <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="H19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1010,8 +1087,11 @@
       <c r="E20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1027,8 +1107,11 @@
       <c r="E21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1042,10 +1125,13 @@
         <v>20</v>
       </c>
       <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="H22">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1059,10 +1145,13 @@
         <v>16</v>
       </c>
       <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="H23">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1078,8 +1167,11 @@
       <c r="E24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1095,8 +1187,11 @@
       <c r="E25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1112,8 +1207,11 @@
       <c r="E26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1129,8 +1227,11 @@
       <c r="E27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1144,10 +1245,13 @@
         <v>16</v>
       </c>
       <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="H28">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1161,10 +1265,13 @@
         <v>16</v>
       </c>
       <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="H29">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1180,8 +1287,11 @@
       <c r="E30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1197,8 +1307,11 @@
       <c r="E31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1214,8 +1327,11 @@
       <c r="E32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1231,8 +1347,11 @@
       <c r="E33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1246,10 +1365,13 @@
         <v>10</v>
       </c>
       <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="H34">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1263,10 +1385,13 @@
         <v>20</v>
       </c>
       <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="H35">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1280,10 +1405,13 @@
         <v>20</v>
       </c>
       <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="H36">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1297,10 +1425,13 @@
         <v>20</v>
       </c>
       <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="H37">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1314,10 +1445,13 @@
         <v>10</v>
       </c>
       <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="H38">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1331,10 +1465,13 @@
         <v>20</v>
       </c>
       <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="H39">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1348,10 +1485,13 @@
         <v>10</v>
       </c>
       <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="H40">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1365,10 +1505,13 @@
         <v>20</v>
       </c>
       <c r="E41">
+        <v>16</v>
+      </c>
+      <c r="H41">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1384,8 +1527,11 @@
       <c r="E42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1399,10 +1545,13 @@
         <v>15</v>
       </c>
       <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="H43">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1416,10 +1565,13 @@
         <v>10</v>
       </c>
       <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="H44">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1433,10 +1585,13 @@
         <v>16</v>
       </c>
       <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="H45">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1452,8 +1607,11 @@
       <c r="E46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1469,8 +1627,11 @@
       <c r="E47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1484,10 +1645,13 @@
         <v>20</v>
       </c>
       <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="H48">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1501,11 +1665,14 @@
         <v>10</v>
       </c>
       <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="H49">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B50">
@@ -1518,7 +1685,61 @@
         <v>20</v>
       </c>
       <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="H50">
         <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52">
+        <v>0.2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
+        <v>0.19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/промежуточная таблица/матрица.xlsx
+++ b/промежуточная таблица/матрица.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0C8BF-60EC-4AD8-A9B2-30C3C488711C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CFE061-21FC-4B07-8629-727DB05DDF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,8 +688,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
